--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spring\Desktop\Code\fyp\solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8CAF75-C3C4-4E43-A2E4-2927BA98FE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68750D04-E132-405C-ADD2-5D9A38E3755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
